--- a/excel/303 Indicativo - Imperfetto.xlsx
+++ b/excel/303 Indicativo - Imperfetto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13620"/>
+    <workbookView windowWidth="30720" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <t>例句</t>
   </si>
   <si>
-    <t>Indicativo - Imperfetto</t>
+    <t>303 Indicativo - Imperfetto</t>
   </si>
   <si>
     <t>fare</t>
@@ -1190,7 +1190,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="A3" sqref="A3:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>

--- a/excel/303 Indicativo - Imperfetto.xlsx
+++ b/excel/303 Indicativo - Imperfetto.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carol\0-Coding\quiz-mini-springboot\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="450">
   <si>
     <t>类别名称</t>
   </si>
@@ -212,19 +217,2157 @@
   </si>
   <si>
     <t>parlavano</t>
+  </si>
+  <si>
+    <t>sembrare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lei/lui</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sembrava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leggere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leggeva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergeva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v.intr.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出现，显出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Dal buio emersero due loschi individui.黑暗中出现两个形迹可疑的人</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pubblicare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pubblicava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pubblicare una notizia发表一条消息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lavorare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lavorava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>osservare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>noi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>osservavamo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) 观察, 观测; 注视, 监视：
+osservare una ferita 观察伤口
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(3) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>遵守</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">奉行：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>osservare la disciplina</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>遵守纪律</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aumentare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aumentava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.tr 增加 mi hanno aumentato lo stipendio 她们给我涨工资了
+ （人是主语，人来做增加这个动作）
+v.intr 增加 la popolazione è aumentata notevolmente 人口显著增加了（增长的东西是主语）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aiutare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aiutava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>appartenere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lei/lui</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>apparteneva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v.intr.属于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Quel dizionario appartiene alla bibliotece scolastica. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>那本字典是学习图书馆的</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rappresentare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rappresentava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>象征，体现，表示：
+Il verde rappresenta la speranza. 绿色象征希望。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trattarsi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>si trattava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>si tratta di...关于, 涉及, 问题在于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Si tratta di vita o di morte.这与生死有关</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>eseguire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>eseguiva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实行，实施：
+eseguire un lavoro (un piano) 实行一项工作 (一个计划)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rilassarsi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>si rilassava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放松, 松懈; 休息, 轻松一下 Cerca di rilassarti un po’！你尽量放松下</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentirsi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>io</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>si sentiva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感到，觉得;想要;打电话   Non mi sento di uscire. 我不想出去</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>esistere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lei/lui</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>esisteva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在，有 Questo personaggio non esiste.这个人物是不存在的.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>diventare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>diventava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Il latte è diventato acido. 牛奶变酸了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>terminare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>terminava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.intr [aus. essere] 结束; 终止, 完毕 Lo spettacolo termina alle cinque. 演出在五点钟结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>festeggiare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>festeggiava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆祝，欢庆：
+festeggiare un anniversario庆祝周年纪念日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avvenire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avveniva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v.intr Che cosa è avvenuto?发生了什么事?
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>impedire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>impediva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妨碍 Il maltempo ci ha impedito di partire.恶劣的天气使我们不能启程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scomparire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scompariva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.intr 不见, 消失，消逝, 消散:L’aereo scomparve all’orizzonte.飞机消失在地平线上</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>contattare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>contattava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho contattato un cliente 我联系了一个客户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>conoscere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>noi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>conoscevamo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>studiare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>voi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>studiavate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trovare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trovava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>posizionare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>posizionava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. posizionare le telecamere 摆放好摄像头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>riflettere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rifletteva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt.反映，反射 L’aumento dei prezzi riflette la difficoltà della produzione. 物价上涨反映出生产上的困难
+vi. （后面+ su） 思考 riflettere sulle conseguenze 考虑后果
+Lasciami riflettere su un po’. 让我想一想</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>collegare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>collegava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接, 接合：
+collegare due città con una linea ferroviaria 用铁路线把两个城市连接起来</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>programmare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>programmava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 制定计划,规划: programmare la produzione industriale 制定工业生产计划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>apprezzare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>apprezzavamo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutti apprezzano il suo lavoro. 大家都很重视他的工作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ricevere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>riceveva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>riuscire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>riusciva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>riuscire a fare qlco 成功做某事 Forse riusciremo a terminare il lavoro domani.也许明天我们可以结束工作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attrarre</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attraeva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>招引, 引诱, 诱惑：
+I manifesti affissi al muro attrassero molti passanti 墙上的广告招引来许多行人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>condividere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>condivideva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享，分担；共同具有，共同使用：
+condividere gioie e dolori con qlcu. 与某人同甘共苦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>riportare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>riportava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带回; 拿回：Mi ha riportato a casa in automobile. 她用汽车把我带回了家</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedeva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>incontrare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>incontrava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invitare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>invitava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chiudere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chiudeva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mostrare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mostrava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrivare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrivava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>durare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>durava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>La rappresentazione dura due ore. 演出持续了两个小时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>presentare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>presentava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Posso presentarti mia cugina?我可以把我的表妹介绍给你吗？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>applaudire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>applaudiva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt.为...鼓掌，向...喝彩；欢呼：Gli operi applaudirono a lungo gli attori. 工人向演员们经久不息地鼓掌。
+vi. applaudire a uno spettacolo 为演出喝彩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquistare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquisitava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>买</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vincere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vinceva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">vincere un incontro di calcio 赢得一场足球比赛
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>provare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>provava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. Proviamo a entrare.我们试着进去</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentivo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dedicare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dedicava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Il primo capitolo del romanzo è dedicato alla descrizione dell’ambiente.小说的第一章用来描写环境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>realizzare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>realizzava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>realizzare la gravità di una situazione 认识到情况的严重性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> realizzare un sogno 实现梦想
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rompersi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>si rompeva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自反动词：打破，折断，弄碎：
+Il bicchiere cadde e si ruppe in mille pezzi.杯子掉了下来，打得粉碎。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pensare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pensava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mentire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mentiva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i. Non mentire ！不要说谎！</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sostituire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sostituiva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sostituire il tappeto logoro con un nuovo用新地毯换下旧地毯</t>
+  </si>
+  <si>
+    <t>reagire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reagiva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> sotto anestesia i nervi non reagiscono 
+麻醉状态下神经没有反应</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>desiderare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>desideva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inseguire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>inseguiva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inseguire il nemico 追击敌人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>frequentare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>frequentava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>frequentare un bar 常去酒吧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mia figlia frequenta la quinta elementare.我女儿上小学五年级</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>occorrere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>occorreva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.intr.
+[变位同correre] [aus. essere]
+(1) 需要：
+Ti occorrono almeno due giorni per terminare il lavoro. 至少你要两天才能完成这项工作。
+“Vuoi una mano?” “Grazie, non occorre.” “你要帮忙吗？” “谢谢，不用了。”
+Quanto ti occorre? 你需要多少 (钱) ？
+(2) [impers.] 必须：
+Occorre agire subito. 必须马上行动。
+Occorre far presto. 必须快点。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>affrontare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>affrontava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.tr.
+[io affronto, ecc.]
+(1) 迎击：
+I soldati affrontarono coraggiosamente il nemico.战士英勇迎击敌人。
+(2) 面临；应付，对付：
+affrontare un pericolo冒危险
+affrontare la morte 冒生命危险
+affrontare una situazione difficile应付困难
+(3) 研究，处理：
+affrontare una questione 研究问题
+affrontare un problema spinoso 处理一个棘手问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>possedere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>possedevate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t. (1) 占有，拥有：
+possedere una bicicletta 有一辆自行车
+possedere un podere (un terreno) 拥有一所农庄 (一块土地)
+possedere una villa al mare有一座海边别墅
+(2) 具有 (品质、才能等) ：
+possedere molte qualità有许多优良品质
+possedere uno spiccato senso musicale有一种特殊的音乐感</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>seguire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loro</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>seguivano</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vai avanti tu, io ti seguo.你在前面走, 我跟着你</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>inserire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>inseriva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入，放入，嵌入：
+inserire una lettera nella busta 将信装入信封</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniziare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniziava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始;发动, 创始：
+iniziare il lavoro开始工作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loro</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>entravano</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>illustrare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>voi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>illustravate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (举例、加注) 说明， (用图和例子等) 解释：
+illustrare un’opera con note 注释一部著作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>guardare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>guardava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>passare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>passava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>costringere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>costringevano</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt.逼迫, 迫使, 强迫 La malattia mi ha costretto a restare a casa.疾病使我不得不待在家里</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spiegare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spiegavate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ringraziare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ringraziavo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢，谢谢：
+ringraziare sinceramente qlcu. 对某人表示衷心感谢</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>raccontare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>raccontavo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">叙述，讲述；描写，描绘：
+raccontare una storia (una fiaba) 讲故事 (童话)
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>partecipare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>partecipava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>vi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.后面+a 参加, 参与：
+partecipare a una gara 参加一次比赛</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prendere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prendeva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cominciare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cominciava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>accogliere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>io</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>accoglievo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t.欢迎；接受, 接纳：
+accogliere una domanda 接受一个要求
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bastare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bastava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lo stipendio non gli basta mai.工资对他来说总是不够的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sottolineare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lei/lui</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sottolienava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 着重指出, 强调指出,使突出：
+Tengo a sottolineare l’importanza di questo particolare.我想强调指出这个细节的重要</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>raggiungere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>raggiungeva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t. 赶上，抵达，取得
+Recentemente abbiamo raggiunto ottimi risultati. 最近我们取得了很好的成绩。
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avvicinarsi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>si avvicinava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">v.rifl.
+临近; 接近, 靠近：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>La nave si avvicina al porto.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>船靠近港口</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitavi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfruttare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfruttava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 开采，剥削，利用 sfruttare la fiducia di qlcu.利用某人的信任</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>augurarsi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci auguravamo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>augurarsi
+v.rifl.
+希望：
+Tutti si augurano di visitare Yan’an.大家都希望能访问延安</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>riproporre</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>riproponeva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">重新提出 ★★ 再提出
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ricordare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ricordava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>viaggiare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>viaggiava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addormentarsi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci addormentavamo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v.rifl.
+(1) 入睡：
+Non si potevano addormentarsi </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>squillare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>squillava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.intr.
+[aus. essere 或 avere] (钟、铃等) 鸣, 响：
+Il telefono squilla.电话铃响了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggerire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggeriva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 使人想起;启发, 启示, 建议：
+La gravità della situazione suggerisce la massima prudenza. 形势严重万万不可掉以轻心。
+L’idea per il suo nuovo film gli è stata suggerita da un fatto di cronaca.他写这部新影片的想法是从一条社会新闻中得到的启示。
+Ilmedico ha suggerito al paziente di trascorrere un periodo di riposo in montagna. 医生建议病人到山上休息一段时期。
+(2) 提醒, 提示, 暗示：
+suggerire una risposta暗示一个回答</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>immaginare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>immaginavo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non puoi immaginare quanto ne sia lieto!你不能想象我是多么的高兴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>assisteva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.intr.
+ p.p. assistito] [aus. avere] 出席，参加，参与：（后面+a)
+Varie personalità hanno assistito alla cerimonia di apertura dei giochi sportivi nazionali. 很多知名人士出席了全国运动会开幕式。
+assistere a uno spettacolo 观看演出
+assistere alla lezione 听课
+[II.]
+v.tr.
+帮助，协助；照看：
+assistere un vecchio 帮助一位老年人
+assistere i pazienti 照料病人
+★　常用短语：
+che la fortuna t’assista! 祝你运气好！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rivolgere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rivolgevo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t. 把…转向；把…对准：
+rivolgere attenzione a qlco 把注意力转向某事
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scattare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scattava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.intr.
+[aus. avere 或 essere]
+(1) (弹赞等) 突然松开, 弹起：
+La trappola non è scattato. 这块跳板没弹起来。
+(2) [转] 跳起, 跃起; 突然加速, 冲刺 scattare in piedi一跃而起
+scattare all’attacco 跳起来冲锋
+scattare alla partenza (al via) 起跑
+scattare in salita [体] (自行车考中) 突然加速
+Dal prossimo mese scatterà l’aumento di stipendio. [转] 下个月将增加工资。
+(3) [转] 突然发怒:E’ molto nervoso, alla prima osservazione scatta.他非常烦躁, 刚提点意见就跳了起来。
+[II.]
+v.tr.
+拍摄：
+scattare una foto拍照片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>alzare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>alzava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>举起 ★★ 抬高 ★★ 抬 ★★ 举</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>accendere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acendeva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 点 (火), 点燃：
+accendere la fiaccola 点燃火炬, 点燃火把
+accendere la stufa生炉子
+accendere una sigaretta点烟
+(2) 开;开动：
+accendere la luce开灯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>toccarsi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>si toccava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相互触碰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sorridere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sorrideva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>vi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 微笑：
+sorridere dolcemente甜蜜地微笑</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>occuparsi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi occupavo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>occuparsi
+v.rifl.
+(1) 关心，从事于：
+occuparsi degli amici 关朋友，照料朋友
+occuparsi di politica 过问政治
+occuparsi di compravendita 从事买卖
+occuparsi di fisica nucleare 从事于原子物理，搞原子物理
+Non te ne occupare! 你甭管了！你不要过问啦！
+(2) 受雇于，就业：
+S’è occupato come bidello in una scuola. 他在一所学校里做校工</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>accorgersi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>si accorgeva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v.rifl.
+[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p.p. accòrto]
+(1) 发觉, 觉察, 注意到：
+Non mi sono accorto di lui e perciò non l’ho salutato.我没有看到他, 所以没有同他打招呼。
+Non mi ero accorto che pioveva.我没有注意到原来下雨了。
+(2) 开始意识到;理会到：
+Finalmente si è accorto dell’importanza del problema. 他终于意识到了问题的重要性。
+Mi accorsi di avere sbagliato.我知道我错了。
+★　常用短语：
+senz’accorgersene (senza accorgersene) 未注意到, 不知不觉地</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>供认坦白 ★★ 承认 ★★ 坦白 ★★ 忏悔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ti confesserò i miei sogni
+我向你坦白我的梦</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>continuare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>continuavo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intervenire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>interveniva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi.(后面+in)介入，干涉，出席参加 intervenire in un conflitto 参预冲突</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ripensare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ripensava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 再想一想, 重新思考：
+Ripensaci prima di rispondere.在回答之前 再想一想。
+Pensa e ripensa, si ricordò finalmente il mio indirizzo他想了又想, 终于想起了我的地址。
+Ho ripensato alla tua proposta. 我又想了一下你的建议。
+(2) 重新想起, 重新想到: ripensare alla giovinezza又想起年青时代
+(3) 改变想法:Ci ho ripesato, resto a casa. 我改变了想法, 我留在家里</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>decidere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>decideva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 解决, 裁决：
+decidere una questione解决问题
+decidere una controversia裁决诉讼
+(2) 决定, 决意：
+decidere di partire in aereo 决定乘飞机走
+Questa iniziativa va decisa collettivamente.这项创议必须集体决定。
+decidere l’ora della partenza 决定出发时间
+[assol.] Lasciate decidere a lui.你们让他来决定。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ospitare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ospitava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 接待, 招待; 留宿：
+ospitare alcuni amici 招待几个朋友
+Questo asilo d’infanzia ospita due cento bambini.这所幼儿园接纳二百名儿童。
+Puoi ospitarmi per questa notte? 今晚你可以留我住一夜吗？
+(2) 采用, 发表 (文章等) ; 展出 (画幅等) ：
+ospitare un articolo登载一篇文章, 发表一篇文章
+La mostra ospita molte opere dell’Ottocento. 这次画展展出许多十九世纪的作品。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spingere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spingeva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) 推, 推动: spingere un carro 推车
+spingere qlco. (qlcu.) avanti (indietro, dentro, fuori) 把某物 (某人) 向前 (后、里、外) 推
+spingere la macchina a forte velocità让汽车开足马力
+Il ragazzo spingeva i maiali verso il porcile.那孩子把猪赶进猪圈。
+La folla mi spinse lontano dall’ingresso.人群把我从门口挤到老远的地方。
+[assol.] La corrente spinge a riva.水流涌向堤岸。
+[assol.] Non spingete, per favore!别推了!
+(2) 促使, 迫使, 推动：
+Mi spinse a partire.他促使我动身。
+Il bisogno mi spinge a chiederti aiuto.需要迫使我来请你帮忙。
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cambiare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cambiava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>candidarsi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>si candidavano</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>candidarsi
+v.rifl.
+自己提名为候选人，参加竞选：
+candidarsi alla carica di sindaco 参加市长的竞选</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>provenire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>proveniva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi.（后面+a) 来自，源自于merce che proviene dall’estero来自国外的货物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>svolgere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>svolgeva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) 展开,打开, 摊开：
+svolgere un pacco打开包裹
+svolgere una matassa di lana打开一束毛线
+(2) [转] 发挥, 展开：
+svolgere un argomento对一个论点加以发挥
+svolgere il tema di italiano作一篇意大利文作文
+(3) [转] 进行,开展：
+svolgere un lavoro进行一项工作
+svolgere un’attività开展一项活动
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>concludere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>concludeva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v.tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1) 结束，做完，做成：
+Ha finalmente concluso la sua arringa.他终于结束了高谈阔论。
+Oggi ho faticato molto, ma non ho concluso niente. 今天我忙了一天， 可是什么也没做成。
+(2) 缔结，议定：
+concludere un trattato 缔结一项条约
+concludere un affare 做一笔生意
+(3) 得出...结论：
+Abbiamo concluso che ha troto 我们得出结论他错了。
+(4) [古] [文] 包括，包含
+[II.]
+v.intr.
+[aus. avere] 有说服力：
+un argomento che non conclude 一种没有说服力的论据</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>giungere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>giungeva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi.(后面+a)到达 Siamo giunti in tempo alla stazione.我们及时到了火车站。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>evidenziare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>evidenziava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 突出，使显明：
+evidenziare una pratica 准备速办一件公事
+evidenziare gli aspetti salienti di una recente scoperta scientifica把一项最新科学发明的主要部分如以突岀
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>propo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rsi</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>si proponeva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">决定 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mi proposi di non intervenire pi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ù</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nelle loro discussioni 
+我决定不再介入她们的讨论</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>consentire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>consentiva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt.允许 vi.同意（后面+a) i genitori hanno consentito al matrimonio 母父同意了这个婚事</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>muoversi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci muovevate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>muòversi
+v.rifl.
+(1) 动; 走动; 活动：
+Sono tanto malato che non posso muovermi.我病得厉害不能动弹。
+Se non ti chiamo, non ti muovere.如果我不叫你, 你就别动。
+muovere dal proprio paese 离乡背井
+muovere da casa 离开家
+Muoviti: è tardi!晚啦, 快点吧！
+(2) [转] 采取行动；行动起来：
+Nessuno si mosse in mio aiuto; 没有人来帮我。
+S’è mosso il direttore in persona.主任亲自过问。
+(3) [转] 感动, 激动
+muovere a pietà同情, 怜悯
+(4) 运动, 运转：
+La luna si muove intorno alla Terra.月亮绕地球转动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>registrare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>registrava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">把电视画面录在磁带上 ★★ 登记 ★★ 登记入住 ★★ 使适合 ★★ 调节 ★★ 调整 ★★ 校准 ★★ 注册 ★★ 记录 ★★ 录音
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>controllare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>voi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>controllavate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 控制: controllare il mercato internazionale del cacao控制国际可可市场
+La macchina è controllata automaticamente.这部机器是自动控制的.
+controllare la situazione控制局势
+(2) 核对, 检查: controllare l’esattezza di un’informazione核实一条消息
+controllare la qualità di un prodotto检查产品的质量
+controllare i freni di una macchina检查汽车的闸
+controllare il passaporto 检查护照
+controllare i conti查账
+controllare i biglietti查票
+controllare la pressione验血压</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>imparare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>imparavate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>integrare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>integrava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 补全，使完全：
+integrare un testo con note 在正文上加上注解 integrare un’alimentazione insufficiente 补足不足的食品
+(2) 使联系，使结合：
+integrare la teoria con la pratica 使理论与实际相结合
+(3) 使并入，使成为一体：
+integrare una minoranza etnica 同化一个少数民族
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>permettere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>permetteva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v.tr.
+允许，准许，许可：
+Il medico non mi permette di uscire. 医生不许我出去。
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>potere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>io</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>potevo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dovere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dovevi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rimanere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rimaneva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>avere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avevamo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sapere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sapevate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>andare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>andavano</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>io</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenevo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>volere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>volevi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>finiva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uscire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uscivamo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scegliere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sceglievate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>venire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>venivano</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>davo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>piacere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>piacevi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>salire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>saliva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -239,158 +2382,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,194 +2416,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -613,317 +2440,47 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1181,28 +2738,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A43"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="8.5462962962963" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="53.3611111111111" customWidth="1"/>
+    <col min="5" max="5" width="53.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1219,7 +2776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1236,7 +2793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1253,7 +2810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1270,7 +2827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1287,7 +2844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1304,7 +2861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1321,7 +2878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1338,7 +2895,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1355,7 +2912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1372,7 +2929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1389,7 +2946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1406,7 +2963,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1423,7 +2980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1440,7 +2997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1457,7 +3014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1474,7 +3031,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1491,7 +3048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1508,7 +3065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1525,7 +3082,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1542,7 +3099,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1559,7 +3116,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1576,7 +3133,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1593,7 +3150,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1610,7 +3167,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1627,7 +3184,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1644,7 +3201,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1661,7 +3218,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1678,7 +3235,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1695,7 +3252,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1712,7 +3269,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1729,7 +3286,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1743,7 +3300,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1757,7 +3314,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1771,7 +3328,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1785,7 +3342,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1799,7 +3356,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1813,7 +3370,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1827,7 +3384,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1841,7 +3398,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1855,7 +3412,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1869,7 +3426,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1883,7 +3440,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1897,8 +3454,2219 @@
         <v>65</v>
       </c>
     </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="70" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="154" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="168" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="70" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="154" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="252" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="168" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="196" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="140" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="140" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E150" s="4"/>
+    </row>
+    <row r="151" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="140" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="238" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="182" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E162" s="4"/>
+    </row>
+    <row r="163" spans="1:5" ht="140" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="70" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>